--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="31">
   <si>
     <t>Column Name</t>
   </si>
@@ -274,8 +274,8 @@
       <c r="E4" t="n">
         <v>65537.0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
       <c r="G4" t="s" s="3">
         <v>9</v>
@@ -294,8 +294,8 @@
       <c r="E5" t="n">
         <v>1.2345E-4</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
       <c r="G5" t="s" s="3">
         <v>9</v>
@@ -314,8 +314,8 @@
       <c r="E6" t="n">
         <v>1.234567E-4</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
       <c r="G6" t="s" s="3">
         <v>9</v>
@@ -334,8 +334,8 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
       <c r="G7" t="s" s="3">
         <v>9</v>
@@ -354,8 +354,8 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
+      <c r="F8" t="s">
+        <v>8</v>
       </c>
       <c r="G8" t="s" s="3">
         <v>9</v>
@@ -374,8 +374,8 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
       <c r="G9" t="s" s="3">
         <v>9</v>

--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -218,7 +218,7 @@
     <col min="4" max="4" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.65234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -930,7 +930,7 @@
         <v>37.0</v>
       </c>
       <c r="G39" t="n" s="5">
-        <v>5.645665807101333E-4</v>
+        <v>5.648854961832061E-4</v>
       </c>
     </row>
     <row r="40">
@@ -950,7 +950,7 @@
         <v>4.4999999999998383E-7</v>
       </c>
       <c r="G40" t="n" s="5">
-        <v>0.003645200486026601</v>
+        <v>0.003658536585365722</v>
       </c>
     </row>
     <row r="41">
@@ -970,7 +970,7 @@
         <v>9.999999999999999E-5</v>
       </c>
       <c r="G41" t="n" s="5">
-        <v>0.44751399264376496</v>
+        <v>0.8100005913004316</v>
       </c>
     </row>
     <row r="42">
@@ -990,7 +990,7 @@
         <v>1.111111101111111E19</v>
       </c>
       <c r="G42" t="n" s="5">
-        <v>0.9</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="43">
@@ -1030,7 +1030,7 @@
         <v>0.01111110111111111</v>
       </c>
       <c r="G44" t="n" s="5">
-        <v>0.0825687398451253</v>
+        <v>0.08999991980999927</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="32">
   <si>
     <t>Column Name</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Miro</t>
+  </si>
+  <si>
+    <t>&lt;missing&gt;</t>
   </si>
   <si>
     <t>yes</t>
@@ -214,7 +217,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="43.6484375" customWidth="true" bestFit="true"/>
@@ -671,8 +674,11 @@
       <c r="D24" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="E24" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="F24" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -685,6 +691,9 @@
       <c r="D25" t="n" s="4">
         <v>65537.0</v>
       </c>
+      <c r="E25" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="F25" t="n" s="4">
         <v>65537.0</v>
       </c>
@@ -702,6 +711,9 @@
       <c r="D26" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
+      <c r="E26" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="F26" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
@@ -719,6 +731,9 @@
       <c r="D27" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
+      <c r="E27" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="F27" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
@@ -736,6 +751,9 @@
       <c r="D28" t="s" s="4">
         <v>14</v>
       </c>
+      <c r="E28" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
@@ -753,6 +771,9 @@
       <c r="D29" t="s" s="4">
         <v>16</v>
       </c>
+      <c r="E29" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="F29" t="s" s="4">
         <v>16</v>
       </c>
@@ -770,6 +791,9 @@
       <c r="D30" t="s" s="4">
         <v>18</v>
       </c>
+      <c r="E30" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="F30" t="s" s="4">
         <v>18</v>
       </c>
@@ -784,11 +808,14 @@
       <c r="C31" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="D31" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E31" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s" s="4">
         <v>26</v>
-      </c>
-      <c r="F31" t="s" s="4">
-        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -798,6 +825,9 @@
       <c r="C32" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="D32" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E32" t="n" s="4">
         <v>-65537.0</v>
       </c>
@@ -815,6 +845,9 @@
       <c r="C33" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="D33" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E33" t="n" s="4">
         <v>-1.2345E-4</v>
       </c>
@@ -832,6 +865,9 @@
       <c r="C34" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="D34" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E34" t="n" s="4">
         <v>-1.234567E-4</v>
       </c>
@@ -849,6 +885,9 @@
       <c r="C35" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="D35" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
@@ -866,6 +905,9 @@
       <c r="C36" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="D36" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E36" t="s" s="4">
         <v>21</v>
       </c>
@@ -883,6 +925,9 @@
       <c r="C37" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="D37" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E37" t="s" s="4">
         <v>22</v>
       </c>
@@ -901,10 +946,10 @@
         <v>6.0</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -981,7 +1026,7 @@
         <v>6.0</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s" s="4">
         <v>14</v>
@@ -1004,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F43" t="n" s="4">
         <v>1.1111111011E30</v>
@@ -1024,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" t="n" s="4">
         <v>0.01111110111111111</v>
@@ -1047,11 +1092,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.5703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.984375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="19.30078125" customWidth="true" bestFit="true"/>
@@ -1259,46 +1304,88 @@
       <c r="C6" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="D6" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="E6" t="n" s="4">
         <v>65537.0</v>
       </c>
+      <c r="F6" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="G6" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
+      <c r="H6" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="I6" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
+      <c r="J6" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="K6" t="s" s="4">
         <v>14</v>
       </c>
+      <c r="L6" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="M6" t="s" s="4">
         <v>16</v>
       </c>
+      <c r="N6" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="O6" t="s" s="4">
         <v>18</v>
+      </c>
+      <c r="P6" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n" s="4">
         <v>5.0</v>
       </c>
+      <c r="C7" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="D7" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>25</v>
       </c>
       <c r="F7" t="n" s="4">
         <v>-65537.0</v>
       </c>
+      <c r="G7" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="H7" t="n" s="4">
         <v>-1.2345E-4</v>
       </c>
+      <c r="I7" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="J7" t="n" s="4">
         <v>-1.234567E-4</v>
       </c>
+      <c r="K7" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="L7" t="s" s="4">
         <v>20</v>
       </c>
+      <c r="M7" t="s" s="4">
+        <v>25</v>
+      </c>
       <c r="N7" t="s" s="4">
         <v>21</v>
+      </c>
+      <c r="O7" t="s" s="4">
+        <v>25</v>
       </c>
       <c r="P7" t="s" s="4">
         <v>22</v>
@@ -1309,10 +1396,10 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n" s="4">
         <v>65500.0</v>
@@ -1333,7 +1420,7 @@
         <v>2.234567E-4</v>
       </c>
       <c r="K8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s" s="4">
         <v>14</v>
@@ -1342,13 +1429,13 @@
         <v>16</v>
       </c>
       <c r="N8" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s" s="4">
         <v>18</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -10,14 +10,14 @@
     <sheet name="interlaced" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">detailed!$B$2:$G$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">interlaced!$B$2:$P$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">detailed!$B$2:$G$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">interlaced!$B$2:$R$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="35">
   <si>
     <t>Column Name</t>
   </si>
@@ -37,18 +37,24 @@
     <t>Relative</t>
   </si>
   <si>
+    <t>ETYPE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>FIRST_NAME</t>
   </si>
   <si>
     <t>Martin</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>NUM_INT</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>0.1234567890123456789012345678901</t>
   </si>
   <si>
+    <t>Z</t>
+  </si>
+  <si>
     <t>Zdenek</t>
   </si>
   <si>
@@ -91,13 +100,13 @@
     <t>Karel</t>
   </si>
   <si>
+    <t>&lt;missing&gt;</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Miro</t>
-  </si>
-  <si>
-    <t>&lt;missing&gt;</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Stefan</t>
@@ -271,11 +280,11 @@
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>65537.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65537.0</v>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -286,16 +295,16 @@
     </row>
     <row r="5">
       <c r="B5" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2345E-4</v>
+        <v>65537.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2345E-4</v>
+        <v>65537.0</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -306,16 +315,16 @@
     </row>
     <row r="6">
       <c r="B6" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.234567E-4</v>
+        <v>1.2345E-4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.234567E-4</v>
+        <v>1.2345E-4</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -326,16 +335,16 @@
     </row>
     <row r="7">
       <c r="B7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="D7" t="n">
+        <v>1.234567E-4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.234567E-4</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -386,16 +395,16 @@
     </row>
     <row r="10">
       <c r="B10" t="s" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -406,42 +415,42 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
       </c>
-      <c r="D11" t="n" s="4">
-        <v>-65537.0</v>
-      </c>
-      <c r="E11" t="n" s="4">
-        <v>65537.0</v>
-      </c>
-      <c r="F11" t="n" s="4">
-        <v>131074.0</v>
-      </c>
-      <c r="G11" t="n" s="5">
-        <v>2.0</v>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
       </c>
-      <c r="D12" t="n" s="4">
-        <v>-1.2345E-4</v>
-      </c>
-      <c r="E12" t="n" s="4">
-        <v>1.2345E-4</v>
-      </c>
-      <c r="F12" t="n" s="4">
-        <v>2.469E-4</v>
-      </c>
-      <c r="G12" t="n" s="5">
-        <v>2.0</v>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -452,13 +461,13 @@
         <v>2.0</v>
       </c>
       <c r="D13" t="n" s="4">
-        <v>-1.234567E-4</v>
+        <v>-65537.0</v>
       </c>
       <c r="E13" t="n" s="4">
-        <v>1.234567E-4</v>
+        <v>65537.0</v>
       </c>
       <c r="F13" t="n" s="4">
-        <v>2.469134E-4</v>
+        <v>131074.0</v>
       </c>
       <c r="G13" t="n" s="5">
         <v>2.0</v>
@@ -471,14 +480,14 @@
       <c r="C14" t="n">
         <v>2.0</v>
       </c>
-      <c r="D14" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s" s="4">
-        <v>14</v>
+      <c r="D14" t="n" s="4">
+        <v>-1.2345E-4</v>
+      </c>
+      <c r="E14" t="n" s="4">
+        <v>1.2345E-4</v>
       </c>
       <c r="F14" t="n" s="4">
-        <v>2.4691357802469134E19</v>
+        <v>2.469E-4</v>
       </c>
       <c r="G14" t="n" s="5">
         <v>2.0</v>
@@ -486,19 +495,19 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
       </c>
-      <c r="D15" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s" s="4">
-        <v>16</v>
+      <c r="D15" t="n" s="4">
+        <v>-1.234567E-4</v>
+      </c>
+      <c r="E15" t="n" s="4">
+        <v>1.234567E-4</v>
       </c>
       <c r="F15" t="n" s="4">
-        <v>2.4691357802469137E30</v>
+        <v>2.469134E-4</v>
       </c>
       <c r="G15" t="n" s="5">
         <v>2.0</v>
@@ -506,19 +515,19 @@
     </row>
     <row r="16">
       <c r="B16" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n" s="4">
-        <v>0.24691357802469135</v>
+        <v>2.4691357802469134E19</v>
       </c>
       <c r="G16" t="n" s="5">
         <v>2.0</v>
@@ -526,39 +535,39 @@
     </row>
     <row r="17">
       <c r="B17" t="s" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s" s="3">
-        <v>9</v>
+        <v>2.0</v>
+      </c>
+      <c r="D17" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="F17" t="n" s="4">
+        <v>2.4691357802469137E30</v>
+      </c>
+      <c r="G17" t="n" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D18" t="n" s="4">
-        <v>65537.0</v>
-      </c>
-      <c r="E18" t="n" s="4">
-        <v>-65537.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="D18" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s" s="4">
+        <v>20</v>
       </c>
       <c r="F18" t="n" s="4">
-        <v>131074.0</v>
+        <v>0.24691357802469135</v>
       </c>
       <c r="G18" t="n" s="5">
         <v>2.0</v>
@@ -566,59 +575,59 @@
     </row>
     <row r="19">
       <c r="B19" t="s" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
       </c>
-      <c r="D19" t="n" s="4">
-        <v>1.2345E-4</v>
-      </c>
-      <c r="E19" t="n" s="4">
-        <v>-1.2345E-4</v>
-      </c>
-      <c r="F19" t="n" s="4">
-        <v>2.469E-4</v>
-      </c>
-      <c r="G19" t="n" s="5">
-        <v>2.0</v>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
         <v>3.0</v>
       </c>
-      <c r="D20" t="n" s="4">
-        <v>1.234567E-4</v>
-      </c>
-      <c r="E20" t="n" s="4">
-        <v>-1.234567E-4</v>
-      </c>
-      <c r="F20" t="n" s="4">
-        <v>2.469134E-4</v>
-      </c>
-      <c r="G20" t="n" s="5">
-        <v>2.0</v>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
         <v>3.0</v>
       </c>
-      <c r="D21" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="4">
-        <v>20</v>
+      <c r="D21" t="n" s="4">
+        <v>65537.0</v>
+      </c>
+      <c r="E21" t="n" s="4">
+        <v>-65537.0</v>
       </c>
       <c r="F21" t="n" s="4">
-        <v>2.4691357802469134E19</v>
+        <v>131074.0</v>
       </c>
       <c r="G21" t="n" s="5">
         <v>2.0</v>
@@ -626,19 +635,19 @@
     </row>
     <row r="22">
       <c r="B22" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
         <v>3.0</v>
       </c>
-      <c r="D22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s" s="4">
-        <v>21</v>
+      <c r="D22" t="n" s="4">
+        <v>1.2345E-4</v>
+      </c>
+      <c r="E22" t="n" s="4">
+        <v>-1.2345E-4</v>
       </c>
       <c r="F22" t="n" s="4">
-        <v>2.4691357802469137E30</v>
+        <v>2.469E-4</v>
       </c>
       <c r="G22" t="n" s="5">
         <v>2.0</v>
@@ -646,19 +655,19 @@
     </row>
     <row r="23">
       <c r="B23" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
         <v>3.0</v>
       </c>
-      <c r="D23" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s" s="4">
-        <v>22</v>
+      <c r="D23" t="n" s="4">
+        <v>1.234567E-4</v>
+      </c>
+      <c r="E23" t="n" s="4">
+        <v>-1.234567E-4</v>
       </c>
       <c r="F23" t="n" s="4">
-        <v>0.24691357802469135</v>
+        <v>2.469134E-4</v>
       </c>
       <c r="G23" t="n" s="5">
         <v>2.0</v>
@@ -666,116 +675,113 @@
     </row>
     <row r="24">
       <c r="B24" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C24" t="n" s="4">
-        <v>4.0</v>
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.0</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s" s="4">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F24" t="n" s="4">
+        <v>2.4691357802469134E19</v>
+      </c>
+      <c r="G24" t="n" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C25" t="n" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D25" t="n" s="4">
-        <v>65537.0</v>
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D25" t="s" s="4">
+        <v>18</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n" s="4">
-        <v>65537.0</v>
+        <v>2.4691357802469137E30</v>
       </c>
       <c r="G25" t="n" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C26" t="n" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D26" t="n" s="4">
-        <v>1.2345E-4</v>
+        <v>19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D26" t="s" s="4">
+        <v>20</v>
       </c>
       <c r="E26" t="s" s="4">
         <v>25</v>
       </c>
       <c r="F26" t="n" s="4">
-        <v>1.2345E-4</v>
+        <v>0.24691357802469135</v>
       </c>
       <c r="G26" t="n" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="D27" t="n" s="4">
-        <v>1.234567E-4</v>
+      <c r="D27" t="s" s="4">
+        <v>21</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F27" t="n" s="4">
-        <v>1.234567E-4</v>
-      </c>
-      <c r="G27" t="n" s="5">
-        <v>1.0</v>
+        <v>27</v>
+      </c>
+      <c r="F27" t="s" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="G28" t="n" s="5">
-        <v>1.0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="D29" t="s" s="4">
-        <v>16</v>
+      <c r="D29" t="n" s="4">
+        <v>65537.0</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F29" t="s" s="4">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="F29" t="n" s="4">
+        <v>65537.0</v>
       </c>
       <c r="G29" t="n" s="5">
         <v>1.0</v>
@@ -783,19 +789,19 @@
     </row>
     <row r="30">
       <c r="B30" t="s" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="D30" t="s" s="4">
-        <v>18</v>
+      <c r="D30" t="n" s="4">
+        <v>1.2345E-4</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s" s="4">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F30" t="n" s="4">
+        <v>1.2345E-4</v>
       </c>
       <c r="G30" t="n" s="5">
         <v>1.0</v>
@@ -803,36 +809,39 @@
     </row>
     <row r="31">
       <c r="B31" t="s" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D31" t="s" s="4">
-        <v>25</v>
+        <v>4.0</v>
+      </c>
+      <c r="D31" t="n" s="4">
+        <v>1.234567E-4</v>
       </c>
       <c r="E31" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="F31" t="s" s="4">
-        <v>26</v>
+      <c r="F31" t="n" s="4">
+        <v>1.234567E-4</v>
+      </c>
+      <c r="G31" t="n" s="5">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E32" t="n" s="4">
-        <v>-65537.0</v>
-      </c>
-      <c r="F32" t="n" s="4">
-        <v>-65537.0</v>
+        <v>16</v>
+      </c>
+      <c r="E32" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s" s="4">
+        <v>16</v>
       </c>
       <c r="G32" t="n" s="5">
         <v>1.0</v>
@@ -840,19 +849,19 @@
     </row>
     <row r="33">
       <c r="B33" t="s" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C33" t="n" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E33" t="n" s="4">
-        <v>-1.2345E-4</v>
-      </c>
-      <c r="F33" t="n" s="4">
-        <v>-1.2345E-4</v>
+        <v>18</v>
+      </c>
+      <c r="E33" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s" s="4">
+        <v>18</v>
       </c>
       <c r="G33" t="n" s="5">
         <v>1.0</v>
@@ -860,19 +869,19 @@
     </row>
     <row r="34">
       <c r="B34" t="s" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E34" t="n" s="4">
-        <v>-1.234567E-4</v>
-      </c>
-      <c r="F34" t="n" s="4">
-        <v>-1.234567E-4</v>
+        <v>20</v>
+      </c>
+      <c r="E34" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s" s="4">
+        <v>20</v>
       </c>
       <c r="G34" t="n" s="5">
         <v>1.0</v>
@@ -880,59 +889,53 @@
     </row>
     <row r="35">
       <c r="B35" t="s" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="G35" t="n" s="5">
-        <v>1.0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="G36" t="n" s="5">
-        <v>1.0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s" s="4">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="E37" t="n" s="4">
+        <v>-65537.0</v>
+      </c>
+      <c r="F37" t="n" s="4">
+        <v>-65537.0</v>
       </c>
       <c r="G37" t="n" s="5">
         <v>1.0</v>
@@ -940,146 +943,266 @@
     </row>
     <row r="38">
       <c r="B38" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s" s="3">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C38" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D38" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="E38" t="n" s="4">
+        <v>-1.2345E-4</v>
+      </c>
+      <c r="F38" t="n" s="4">
+        <v>-1.2345E-4</v>
+      </c>
+      <c r="G38" t="n" s="5">
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D39" t="n" s="4">
-        <v>65500.0</v>
+        <v>14</v>
+      </c>
+      <c r="C39" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D39" t="s" s="4">
+        <v>27</v>
       </c>
       <c r="E39" t="n" s="4">
-        <v>65537.0</v>
+        <v>-1.234567E-4</v>
       </c>
       <c r="F39" t="n" s="4">
-        <v>37.0</v>
+        <v>-1.234567E-4</v>
       </c>
       <c r="G39" t="n" s="5">
-        <v>5.648854961832061E-4</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D40" t="n" s="4">
-        <v>1.23E-4</v>
-      </c>
-      <c r="E40" t="n" s="4">
-        <v>1.2345E-4</v>
-      </c>
-      <c r="F40" t="n" s="4">
-        <v>4.4999999999998383E-7</v>
+        <v>15</v>
+      </c>
+      <c r="C40" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D40" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s" s="4">
+        <v>23</v>
       </c>
       <c r="G40" t="n" s="5">
-        <v>0.003658536585365722</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D41" t="n" s="4">
-        <v>1.234567E-4</v>
-      </c>
-      <c r="E41" t="n" s="4">
-        <v>2.234567E-4</v>
-      </c>
-      <c r="F41" t="n" s="4">
-        <v>9.999999999999999E-5</v>
+        <v>17</v>
+      </c>
+      <c r="C41" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D41" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="G41" t="n" s="5">
-        <v>0.8100005913004316</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6.0</v>
+        <v>19</v>
+      </c>
+      <c r="C42" t="n" s="4">
+        <v>5.0</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="F42" t="n" s="4">
-        <v>1.111111101111111E19</v>
+        <v>25</v>
+      </c>
+      <c r="F42" t="s" s="4">
+        <v>25</v>
       </c>
       <c r="G42" t="n" s="5">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
         <v>6.0</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="F43" t="n" s="4">
-        <v>1.1111111011E30</v>
-      </c>
-      <c r="G43" t="n" s="5">
-        <v>0.899999999991</v>
+        <v>21</v>
+      </c>
+      <c r="F43" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
         <v>6.0</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D45" t="n" s="4">
+        <v>65500.0</v>
+      </c>
+      <c r="E45" t="n" s="4">
+        <v>65537.0</v>
+      </c>
+      <c r="F45" t="n" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="G45" t="n" s="5">
+        <v>5.648854961832061E-4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D46" t="n" s="4">
+        <v>1.23E-4</v>
+      </c>
+      <c r="E46" t="n" s="4">
+        <v>1.2345E-4</v>
+      </c>
+      <c r="F46" t="n" s="4">
+        <v>4.4999999999998383E-7</v>
+      </c>
+      <c r="G46" t="n" s="5">
+        <v>0.003658536585365722</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D47" t="n" s="4">
+        <v>1.234567E-4</v>
+      </c>
+      <c r="E47" t="n" s="4">
+        <v>2.234567E-4</v>
+      </c>
+      <c r="F47" t="n" s="4">
+        <v>9.999999999999999E-5</v>
+      </c>
+      <c r="G47" t="n" s="5">
+        <v>0.8100005913004316</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D48" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="F48" t="n" s="4">
+        <v>1.111111101111111E19</v>
+      </c>
+      <c r="G48" t="n" s="5">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="E44" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="F44" t="n" s="4">
+      <c r="E49" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="F49" t="n" s="4">
+        <v>1.1111111011E30</v>
+      </c>
+      <c r="G49" t="n" s="5">
+        <v>0.899999999991</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D50" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="F50" t="n" s="4">
         <v>0.01111110111111111</v>
       </c>
-      <c r="G44" t="n" s="5">
+      <c r="G50" t="n" s="5">
         <v>0.08999991980999927</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G44"/>
+  <autoFilter ref="B2:G50"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1093,20 +1216,22 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.984375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.30078125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="19.30078125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.48828125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="42.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="41.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="41.90625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="16.62890625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.984375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="16.984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.30078125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="19.30078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="42.48828125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="42.48828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="41.90625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="41.90625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="43.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1126,22 +1251,22 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s" s="1">
         <v>15</v>
@@ -1155,6 +1280,12 @@
       <c r="P2" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="Q2" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
@@ -1166,29 +1297,29 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
         <v>65537.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>65537.0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1.2345E-4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>1.2345E-4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>1.234567E-4</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1.234567E-4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -1202,52 +1333,64 @@
       <c r="P3" t="s">
         <v>18</v>
       </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
         <v>2.0</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n" s="4">
         <v>-65537.0</v>
       </c>
-      <c r="F4" t="n" s="4">
+      <c r="H4" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="G4" t="n" s="4">
+      <c r="I4" t="n" s="4">
         <v>-1.2345E-4</v>
       </c>
-      <c r="H4" t="n" s="4">
+      <c r="J4" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="I4" t="n" s="4">
+      <c r="K4" t="n" s="4">
         <v>-1.234567E-4</v>
       </c>
-      <c r="J4" t="n" s="4">
+      <c r="L4" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="K4" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s" s="4">
-        <v>14</v>
-      </c>
       <c r="M4" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s" s="4">
         <v>16</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s" s="4">
         <v>18</v>
+      </c>
+      <c r="Q4" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1255,46 +1398,52 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="n" s="4">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="F5" t="n" s="4">
+      <c r="H5" t="n" s="4">
         <v>-65537.0</v>
       </c>
-      <c r="G5" t="n" s="4">
+      <c r="I5" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="H5" t="n" s="4">
+      <c r="J5" t="n" s="4">
         <v>-1.2345E-4</v>
       </c>
-      <c r="I5" t="n" s="4">
+      <c r="K5" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="J5" t="n" s="4">
+      <c r="L5" t="n" s="4">
         <v>-1.234567E-4</v>
-      </c>
-      <c r="K5" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s" s="4">
-        <v>20</v>
       </c>
       <c r="M5" t="s" s="4">
         <v>16</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s" s="4">
         <v>18</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1302,46 +1451,52 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n" s="4">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="G6" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="F6" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="G6" t="n" s="4">
+      <c r="H6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="I6" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="H6" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="I6" t="n" s="4">
+      <c r="J6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="K6" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="J6" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s" s="4">
-        <v>14</v>
-      </c>
       <c r="L6" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s" s="4">
         <v>16</v>
       </c>
       <c r="N6" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s" s="4">
         <v>18</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1349,97 +1504,109 @@
         <v>5.0</v>
       </c>
       <c r="C7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="H7" t="n" s="4">
+        <v>-65537.0</v>
+      </c>
+      <c r="I7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n" s="4">
+        <v>-1.2345E-4</v>
+      </c>
+      <c r="K7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="L7" t="n" s="4">
+        <v>-1.234567E-4</v>
+      </c>
+      <c r="M7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s" s="4">
         <v>25</v>
-      </c>
-      <c r="D7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n" s="4">
-        <v>-65537.0</v>
-      </c>
-      <c r="G7" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="H7" t="n" s="4">
-        <v>-1.2345E-4</v>
-      </c>
-      <c r="I7" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n" s="4">
-        <v>-1.234567E-4</v>
-      </c>
-      <c r="K7" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="P7" t="s" s="4">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
         <v>6.0</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="n" s="4">
+      <c r="C8" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="n" s="4">
         <v>65500.0</v>
       </c>
-      <c r="F8" t="n" s="4">
+      <c r="H8" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="G8" t="n" s="4">
+      <c r="I8" t="n" s="4">
         <v>1.23E-4</v>
       </c>
-      <c r="H8" t="n" s="4">
+      <c r="J8" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="I8" t="n" s="4">
+      <c r="K8" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="J8" t="n" s="4">
+      <c r="L8" t="n" s="4">
         <v>2.234567E-4</v>
       </c>
-      <c r="K8" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s" s="4">
-        <v>14</v>
-      </c>
       <c r="M8" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s" s="4">
         <v>16</v>
-      </c>
-      <c r="N8" t="s" s="4">
-        <v>30</v>
       </c>
       <c r="O8" t="s" s="4">
         <v>18</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s" s="4">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:P8"/>
+  <autoFilter ref="B2:R8"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
   <si>
     <t>Column Name</t>
   </si>
@@ -122,6 +122,54 @@
   </si>
   <si>
     <t>0.1345678901234567890123456789010</t>
+  </si>
+  <si>
+    <t>ETYPE (Source1)</t>
+  </si>
+  <si>
+    <t>FIRST_NAME (Source1)</t>
+  </si>
+  <si>
+    <t>NUM_INT (Source1)</t>
+  </si>
+  <si>
+    <t>NUM_FLOAT (Source1)</t>
+  </si>
+  <si>
+    <t>NUM_DOUBLE (Source1)</t>
+  </si>
+  <si>
+    <t>NUM_DECIMAL1 (Source1)</t>
+  </si>
+  <si>
+    <t>NUM_DECIMAL2 (Source1)</t>
+  </si>
+  <si>
+    <t>NUM_DECIMAL3 (Source1)</t>
+  </si>
+  <si>
+    <t>ETYPE (Source3)</t>
+  </si>
+  <si>
+    <t>FIRST_NAME (Source3)</t>
+  </si>
+  <si>
+    <t>NUM_INT (Source3)</t>
+  </si>
+  <si>
+    <t>NUM_FLOAT (Source3)</t>
+  </si>
+  <si>
+    <t>NUM_DOUBLE (Source3)</t>
+  </si>
+  <si>
+    <t>NUM_DECIMAL1 (Source3)</t>
+  </si>
+  <si>
+    <t>NUM_DECIMAL2 (Source3)</t>
+  </si>
+  <si>
+    <t>NUM_DECIMAL3 (Source3)</t>
   </si>
 </sst>
 </file>
@@ -1216,16 +1264,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.984375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="16.984375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.30078125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="19.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.27734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.27734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="23.046875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="23.046875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="26.0078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="26.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="27.40234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="27.40234375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="42.48828125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="42.48828125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="41.90625" customWidth="true" bestFit="true"/>
@@ -1239,52 +1287,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s" s="1">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s" s="1">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">

--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -11,13 +11,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">detailed!$B$2:$G$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">interlaced!$B$2:$R$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">interlaced!$B$2:$S$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
   <si>
     <t>Column Name</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>0.1345678901234567890123456789010</t>
+  </si>
+  <si>
+    <t># of Diffs</t>
   </si>
   <si>
     <t>ETYPE (Source1)</t>
@@ -1263,398 +1266,420 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="20.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.27734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="23.046875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="26.0078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="23.046875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="26.0078125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="27.40234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="42.48828125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="27.40234375" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="42.48828125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="41.90625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="42.48828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="41.90625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="41.90625" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="43.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="1">
-        <v>35</v>
-      </c>
       <c r="D2" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s" s="1">
-        <v>50</v>
+      <c r="S2" t="s" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="n">
-        <v>65537.0</v>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
       <c r="H3" t="n">
         <v>65537.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2345E-4</v>
+        <v>65537.0</v>
       </c>
       <c r="J3" t="n">
         <v>1.2345E-4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.234567E-4</v>
+        <v>1.2345E-4</v>
       </c>
       <c r="L3" t="n">
         <v>1.234567E-4</v>
       </c>
-      <c r="M3" t="s">
-        <v>16</v>
+      <c r="M3" t="n">
+        <v>1.234567E-4</v>
       </c>
       <c r="N3" t="s">
         <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
         <v>20</v>
       </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="B4" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="n" s="4">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n" s="4">
         <v>-65537.0</v>
       </c>
-      <c r="H4" t="n" s="4">
+      <c r="I4" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="I4" t="n" s="4">
+      <c r="J4" t="n" s="4">
         <v>-1.2345E-4</v>
       </c>
-      <c r="J4" t="n" s="4">
+      <c r="K4" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="K4" t="n" s="4">
+      <c r="L4" t="n" s="4">
         <v>-1.234567E-4</v>
       </c>
-      <c r="L4" t="n" s="4">
+      <c r="M4" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="M4" t="s" s="4">
+      <c r="N4" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="N4" t="s" s="4">
+      <c r="O4" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="4">
+      <c r="P4" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="P4" t="s" s="4">
+      <c r="Q4" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="4">
+      <c r="R4" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="R4" t="s" s="4">
+      <c r="S4" t="s" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="B5" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C5" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="n" s="4">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="H5" t="n" s="4">
+      <c r="I5" t="n" s="4">
         <v>-65537.0</v>
       </c>
-      <c r="I5" t="n" s="4">
+      <c r="J5" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="J5" t="n" s="4">
+      <c r="K5" t="n" s="4">
         <v>-1.2345E-4</v>
       </c>
-      <c r="K5" t="n" s="4">
+      <c r="L5" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="L5" t="n" s="4">
+      <c r="M5" t="n" s="4">
         <v>-1.234567E-4</v>
       </c>
-      <c r="M5" t="s" s="4">
+      <c r="N5" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="N5" t="s" s="4">
+      <c r="O5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="O5" t="s" s="4">
+      <c r="P5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="P5" t="s" s="4">
+      <c r="Q5" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="Q5" t="s" s="4">
+      <c r="R5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="R5" t="s" s="4">
+      <c r="S5" t="s" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="D6" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="E6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="F6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G6" t="n" s="4">
+      <c r="G6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="H6" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="H6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="I6" t="n" s="4">
+      <c r="I6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="J6" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="J6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="K6" t="n" s="4">
+      <c r="K6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="L6" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="L6" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="M6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="N6" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="O6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="P6" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="Q6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="R6" t="s" s="4">
+      <c r="S6" t="s" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>5.0</v>
       </c>
-      <c r="C7" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="D7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="E7" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="F7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s" s="4">
         <v>30</v>
       </c>
-      <c r="G7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="H7" t="n" s="4">
+      <c r="H7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="I7" t="n" s="4">
         <v>-65537.0</v>
       </c>
-      <c r="I7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="J7" t="n" s="4">
+      <c r="J7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="K7" t="n" s="4">
         <v>-1.2345E-4</v>
       </c>
-      <c r="K7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="L7" t="n" s="4">
+      <c r="L7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="M7" t="n" s="4">
         <v>-1.234567E-4</v>
       </c>
-      <c r="M7" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="N7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="O7" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="P7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="Q7" t="s" s="4">
-        <v>27</v>
-      </c>
       <c r="R7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
+      <c r="B8" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="D8" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="D8" t="s" s="4">
+      <c r="E8" t="s" s="4">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="n" s="4">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="n" s="4">
         <v>65500.0</v>
       </c>
-      <c r="H8" t="n" s="4">
+      <c r="I8" t="n" s="4">
         <v>65537.0</v>
       </c>
-      <c r="I8" t="n" s="4">
+      <c r="J8" t="n" s="4">
         <v>1.23E-4</v>
       </c>
-      <c r="J8" t="n" s="4">
+      <c r="K8" t="n" s="4">
         <v>1.2345E-4</v>
       </c>
-      <c r="K8" t="n" s="4">
+      <c r="L8" t="n" s="4">
         <v>1.234567E-4</v>
       </c>
-      <c r="L8" t="n" s="4">
+      <c r="M8" t="n" s="4">
         <v>2.234567E-4</v>
       </c>
-      <c r="M8" t="s" s="4">
+      <c r="N8" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="N8" t="s" s="4">
+      <c r="O8" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="O8" t="s" s="4">
+      <c r="P8" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="P8" t="s" s="4">
+      <c r="Q8" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="Q8" t="s" s="4">
+      <c r="R8" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="R8" t="s" s="4">
+      <c r="S8" t="s" s="4">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:R8"/>
+  <autoFilter ref="B2:S8"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -277,7 +277,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="43.6484375" customWidth="true" bestFit="true"/>
@@ -1267,7 +1267,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="20.27734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="20.27734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
@@ -1514,7 +1514,7 @@
       <c r="B6" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="D6" t="s" s="4">
@@ -1570,7 +1570,7 @@
       <c r="B7" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="D7" t="s" s="4">

--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -182,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -195,16 +195,41 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="D02020"/>
-      <u val="none"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,7 +237,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -221,17 +248,7 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -241,7 +258,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="22"/>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,13 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1287,58 +1311,58 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="1">
+      <c r="F2" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="G2" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="H2" t="s" s="1">
+      <c r="H2" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="J2" t="s" s="1">
+      <c r="J2" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="K2" t="s" s="1">
+      <c r="K2" t="s" s="6">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="1">
+      <c r="L2" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="M2" t="s" s="1">
+      <c r="M2" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="N2" t="s" s="1">
+      <c r="N2" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="O2" t="s" s="1">
+      <c r="O2" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="P2" t="s" s="1">
+      <c r="P2" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="Q2" t="s" s="1">
+      <c r="Q2" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="R2" t="s" s="1">
+      <c r="R2" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="S2" t="s" s="1">
+      <c r="S2" t="s" s="6">
         <v>51</v>
       </c>
     </row>
@@ -1399,7 +1423,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n" s="4">
+      <c r="B4" t="n" s="7">
         <v>6.0</v>
       </c>
       <c r="C4" t="n">
@@ -1417,45 +1441,45 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="n" s="4">
+      <c r="H4" t="n" s="7">
         <v>-65537.0</v>
       </c>
-      <c r="I4" t="n" s="4">
+      <c r="I4" t="n" s="7">
         <v>65537.0</v>
       </c>
-      <c r="J4" t="n" s="4">
+      <c r="J4" t="n" s="7">
         <v>-1.2345E-4</v>
       </c>
-      <c r="K4" t="n" s="4">
+      <c r="K4" t="n" s="7">
         <v>1.2345E-4</v>
       </c>
-      <c r="L4" t="n" s="4">
+      <c r="L4" t="n" s="7">
         <v>-1.234567E-4</v>
       </c>
-      <c r="M4" t="n" s="4">
+      <c r="M4" t="n" s="7">
         <v>1.234567E-4</v>
       </c>
-      <c r="N4" t="s" s="4">
+      <c r="N4" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="4">
+      <c r="O4" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="P4" t="s" s="4">
+      <c r="P4" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="Q4" t="s" s="4">
+      <c r="Q4" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="R4" t="s" s="4">
+      <c r="R4" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="S4" t="s" s="4">
+      <c r="S4" t="s" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n" s="4">
+      <c r="B5" t="n" s="7">
         <v>6.0</v>
       </c>
       <c r="C5" t="n">
@@ -1473,166 +1497,166 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="n" s="4">
+      <c r="H5" t="n" s="7">
         <v>65537.0</v>
       </c>
-      <c r="I5" t="n" s="4">
+      <c r="I5" t="n" s="7">
         <v>-65537.0</v>
       </c>
-      <c r="J5" t="n" s="4">
+      <c r="J5" t="n" s="7">
         <v>1.2345E-4</v>
       </c>
-      <c r="K5" t="n" s="4">
+      <c r="K5" t="n" s="7">
         <v>-1.2345E-4</v>
       </c>
-      <c r="L5" t="n" s="4">
+      <c r="L5" t="n" s="7">
         <v>1.234567E-4</v>
       </c>
-      <c r="M5" t="n" s="4">
+      <c r="M5" t="n" s="7">
         <v>-1.234567E-4</v>
       </c>
-      <c r="N5" t="s" s="4">
+      <c r="N5" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="O5" t="s" s="4">
+      <c r="O5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="P5" t="s" s="4">
+      <c r="P5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="Q5" t="s" s="4">
+      <c r="Q5" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="R5" t="s" s="4">
+      <c r="R5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="S5" t="s" s="4">
+      <c r="S5" t="s" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="4">
+      <c r="B6" t="n" s="7">
         <v>8.0</v>
       </c>
-      <c r="C6" t="n" s="4">
+      <c r="C6" t="n" s="7">
         <v>4.0</v>
       </c>
-      <c r="D6" t="s" s="4">
+      <c r="D6" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="E6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s" s="4">
+      <c r="E6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="G6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="H6" t="n" s="4">
+      <c r="G6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H6" t="n" s="7">
         <v>65537.0</v>
       </c>
-      <c r="I6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="J6" t="n" s="4">
+      <c r="I6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="J6" t="n" s="7">
         <v>1.2345E-4</v>
       </c>
-      <c r="K6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="L6" t="n" s="4">
+      <c r="K6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="L6" t="n" s="7">
         <v>1.234567E-4</v>
       </c>
-      <c r="M6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s" s="4">
+      <c r="M6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="O6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s" s="4">
+      <c r="O6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="Q6" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="R6" t="s" s="4">
+      <c r="Q6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="S6" t="s" s="4">
+      <c r="S6" t="s" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n" s="4">
+      <c r="B7" t="n" s="7">
         <v>8.0</v>
       </c>
-      <c r="C7" t="n" s="4">
+      <c r="C7" t="n" s="7">
         <v>5.0</v>
       </c>
-      <c r="D7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s" s="4">
+      <c r="D7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="F7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s" s="4">
+      <c r="F7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="H7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="I7" t="n" s="4">
+      <c r="H7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="I7" t="n" s="7">
         <v>-65537.0</v>
       </c>
-      <c r="J7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="K7" t="n" s="4">
+      <c r="J7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="K7" t="n" s="7">
         <v>-1.2345E-4</v>
       </c>
-      <c r="L7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="M7" t="n" s="4">
+      <c r="L7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="M7" t="n" s="7">
         <v>-1.234567E-4</v>
       </c>
-      <c r="N7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s" s="4">
+      <c r="N7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="P7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s" s="4">
+      <c r="P7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="R7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s" s="4">
+      <c r="R7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n" s="4">
+      <c r="B8" t="n" s="7">
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="D8" t="s" s="4">
+      <c r="D8" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="E8" t="s" s="4">
+      <c r="E8" t="s" s="7">
         <v>21</v>
       </c>
       <c r="F8" t="s">
@@ -1641,40 +1665,40 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="n" s="4">
+      <c r="H8" t="n" s="7">
         <v>65500.0</v>
       </c>
-      <c r="I8" t="n" s="4">
+      <c r="I8" t="n" s="7">
         <v>65537.0</v>
       </c>
-      <c r="J8" t="n" s="4">
+      <c r="J8" t="n" s="7">
         <v>1.23E-4</v>
       </c>
-      <c r="K8" t="n" s="4">
+      <c r="K8" t="n" s="7">
         <v>1.2345E-4</v>
       </c>
-      <c r="L8" t="n" s="4">
+      <c r="L8" t="n" s="7">
         <v>1.234567E-4</v>
       </c>
-      <c r="M8" t="n" s="4">
+      <c r="M8" t="n" s="7">
         <v>2.234567E-4</v>
       </c>
-      <c r="N8" t="s" s="4">
+      <c r="N8" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="O8" t="s" s="4">
+      <c r="O8" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="P8" t="s" s="4">
+      <c r="P8" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="Q8" t="s" s="4">
+      <c r="Q8" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="R8" t="s" s="4">
+      <c r="R8" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="S8" t="s" s="4">
+      <c r="S8" t="s" s="7">
         <v>34</v>
       </c>
     </row>

--- a/tests/data/desired/numericjoinreport.xlsx
+++ b/tests/data/desired/numericjoinreport.xlsx
@@ -25,10 +25,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Source1</t>
-  </si>
-  <si>
-    <t>Source2</t>
+    <t>Value in Source1</t>
+  </si>
+  <si>
+    <t>Value in Source2</t>
   </si>
   <si>
     <t>Difference</t>
@@ -1296,10 +1296,10 @@
     <col min="5" max="5" width="20.27734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="23.046875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="23.046875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="26.0078125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.0078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="23.05078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="23.05078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="26.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="27.40234375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="27.40234375" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="42.48828125" customWidth="true" bestFit="true"/>
